--- a/ig/ch-ig/ValueSet-ch-ig-example.xlsx
+++ b/ig/ch-ig/ValueSet-ch-ig-example.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T08:36:42+00:00</t>
+    <t>2024-08-20T19:08:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-ig/ValueSet-ch-ig-example.xlsx
+++ b/ig/ch-ig/ValueSet-ch-ig-example.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T19:08:12+00:00</t>
+    <t>2024-08-21T06:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-ig/ValueSet-ch-ig-example.xlsx
+++ b/ig/ch-ig/ValueSet-ch-ig-example.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from CH IG Example" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T06:25:21+00:00</t>
+    <t>2025-05-21T09:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
